--- a/Projectleden.xlsx
+++ b/Projectleden.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Contactgegevens" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>studentnr</t>
   </si>
@@ -122,13 +122,19 @@
   </si>
   <si>
     <t>AndyScherrenberg</t>
+  </si>
+  <si>
+    <t>martinkleinpaste@hotmail.com</t>
+  </si>
+  <si>
+    <t>Best</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -196,7 +202,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-thema">
   <a:themeElements>
     <a:clrScheme name="Kantoor">
       <a:dk1>
@@ -270,7 +276,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -305,7 +310,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Kantoor">
@@ -481,14 +485,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8.7109375" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
@@ -497,7 +501,7 @@
     <col min="6" max="6" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -517,7 +521,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="12.75" customHeight="1">
       <c r="A2">
         <v>2081328</v>
       </c>
@@ -537,7 +541,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="12.75" customHeight="1">
       <c r="A3">
         <v>2075098</v>
       </c>
@@ -557,7 +561,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="12.75" customHeight="1">
       <c r="A4">
         <v>2070008</v>
       </c>
@@ -565,7 +569,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="12.75" customHeight="1">
       <c r="A5">
         <v>2074592</v>
       </c>
@@ -585,7 +589,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="12.75" customHeight="1">
       <c r="A6">
         <v>2070609</v>
       </c>
@@ -595,7 +599,7 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="12.75" customHeight="1">
       <c r="A7">
         <v>2020032</v>
       </c>
@@ -615,7 +619,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="12.75" customHeight="1">
       <c r="A8">
         <v>2076893</v>
       </c>
@@ -625,10 +629,15 @@
       <c r="C8" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="12.75" customHeight="1">
       <c r="A9">
         <v>2075151</v>
       </c>
@@ -648,7 +657,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="12.75" customHeight="1">
       <c r="A10">
         <v>2079723</v>
       </c>
@@ -658,363 +667,363 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="12.75" customHeight="1">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="12.75" customHeight="1">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="12.75" customHeight="1">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="12.75" customHeight="1">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="12.75" customHeight="1">
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="12.75" customHeight="1">
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:5" ht="12.75" customHeight="1">
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:5" ht="12.75" customHeight="1">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:5" ht="12.75" customHeight="1">
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:5" ht="12.75" customHeight="1">
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:5" ht="12.75" customHeight="1">
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:5" ht="12.75" customHeight="1">
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:5" ht="12.75" customHeight="1">
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:5" ht="12.75" customHeight="1">
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:5" ht="12.75" customHeight="1">
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:5" ht="12.75" customHeight="1">
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:5" ht="12.75" customHeight="1">
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:5" ht="12.75" customHeight="1">
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:5" ht="12.75" customHeight="1">
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:5" ht="12.75" customHeight="1">
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:5">
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="4:5">
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:5">
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:5">
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:5">
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:5">
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:5">
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:5">
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:5">
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:5">
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="4:5">
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="4:5">
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="4:5">
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
     </row>
-    <row r="44" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:5">
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
     </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="4:5">
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
     </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="4:5">
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
     </row>
-    <row r="47" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="4:5">
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
     </row>
-    <row r="48" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="4:5">
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
     </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:5">
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
     </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:5">
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
     </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="4:5">
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
     </row>
-    <row r="52" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="4:5">
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
     </row>
-    <row r="53" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="4:5">
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
     </row>
-    <row r="54" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="4:5">
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
     </row>
-    <row r="55" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="4:5">
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
     </row>
-    <row r="56" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="4:5">
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
     </row>
-    <row r="57" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="4:5">
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
     </row>
-    <row r="58" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="4:5">
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
     </row>
-    <row r="59" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="4:5">
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
     </row>
-    <row r="60" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="4:5">
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
     </row>
-    <row r="61" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="4:5">
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
     </row>
-    <row r="62" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="4:5">
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
     </row>
-    <row r="63" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="4:5">
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
     </row>
-    <row r="64" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="4:5">
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
     </row>
-    <row r="65" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="4:5">
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
     </row>
-    <row r="66" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="4:5">
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
     </row>
-    <row r="67" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="4:5">
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
     </row>
-    <row r="68" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="4:5">
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
     </row>
-    <row r="69" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="4:5">
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
     </row>
-    <row r="70" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="4:5">
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
     </row>
-    <row r="71" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="4:5">
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
     </row>
-    <row r="72" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="4:5">
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
     </row>
-    <row r="73" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="4:5">
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
     </row>
-    <row r="74" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="4:5">
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
     </row>
-    <row r="75" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="4:5">
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
     </row>
-    <row r="76" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="4:5">
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
     </row>
-    <row r="77" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="4:5">
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
     </row>
-    <row r="78" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="4:5">
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
     </row>
-    <row r="79" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="4:5">
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
     </row>
-    <row r="80" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="4:5">
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
     </row>
-    <row r="81" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="4:5">
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
     </row>
-    <row r="82" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="4:5">
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
     </row>
-    <row r="83" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="4:5">
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
     </row>
-    <row r="84" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="4:5">
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
     </row>
-    <row r="85" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="4:5">
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
     </row>
-    <row r="86" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="4:5">
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
     </row>
-    <row r="87" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="4:5">
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
     </row>
-    <row r="88" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="4:5">
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
     </row>
-    <row r="89" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="4:5">
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
     </row>
-    <row r="90" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="4:5">
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
     </row>
-    <row r="91" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="4:5">
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
     </row>
-    <row r="92" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="4:5">
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
     </row>
-    <row r="93" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="4:5">
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
     </row>
-    <row r="94" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="4:5">
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
     </row>
-    <row r="95" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="4:5">
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
     </row>
-    <row r="96" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="4:5">
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
     </row>
-    <row r="97" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="4:5">
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
     </row>
-    <row r="98" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="4:5">
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
     </row>
-    <row r="99" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="4:5">
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
     </row>
-    <row r="100" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="4:5">
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
     </row>

--- a/Projectleden.xlsx
+++ b/Projectleden.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Contactgegevens" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -127,7 +127,7 @@
     <t>martinkleinpaste@hotmail.com</t>
   </si>
   <si>
-    <t>Best</t>
+    <t>Best (15min)</t>
   </si>
 </sst>
 </file>
@@ -488,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>

--- a/Projectleden.xlsx
+++ b/Projectleden.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Contactgegevens" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -127,7 +127,7 @@
     <t>martinkleinpaste@hotmail.com</t>
   </si>
   <si>
-    <t>Best (15min)</t>
+    <t>Best (30min)</t>
   </si>
 </sst>
 </file>
@@ -489,7 +489,7 @@
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>

--- a/Projectleden.xlsx
+++ b/Projectleden.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>studentnr</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>Best (30min)</t>
+  </si>
+  <si>
+    <t>0616962323</t>
   </si>
 </sst>
 </file>
@@ -489,7 +492,7 @@
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -632,7 +635,9 @@
       <c r="D8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="F8" t="s">
         <v>37</v>
       </c>
